--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89930.67115495153</v>
+        <v>-90647.90777042983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.69573008</v>
+        <v>4950248.695730065</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>241.1078504188221</v>
       </c>
       <c r="C11" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.11596452810242</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
         <v>261.0144250789145</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157628</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909793</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>70.46388924261851</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902831</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590012</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>122.4451942208915</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659035</v>
       </c>
     </row>
     <row r="12">
@@ -1452,16 +1452,16 @@
         <v>11.09138232743803</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>31.0765351837815</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>95.80294554235505</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
-        <v>36.49439094626075</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
-        <v>67.2932315547432</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V12" t="n">
-        <v>77.11641262213254</v>
+        <v>110.3607413806593</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.60085938290013</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1540,10 +1540,10 @@
         <v>1.960594720463831</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697622</v>
+        <v>17.96311329697623</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783373</v>
+        <v>6.363700576783359</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>57.83398394224579</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961879</v>
+        <v>80.6889413296188</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>101.4859354694948</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.8426089909375</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>261.0144250789147</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>46.28109593178513</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909794</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261851</v>
+        <v>70.46388924261859</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902831</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431541</v>
       </c>
       <c r="C15" t="n">
-        <v>11.09138232743803</v>
+        <v>11.09138232743811</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.02901935393509</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
-        <v>67.2932315547432</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500632</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>83.62441715581234</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.0572414318021</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351929</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891977</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498073</v>
+        <v>2.545920536498159</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277608</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463831</v>
+        <v>1.960594720463916</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697623</v>
+        <v>17.9631132969763</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783359</v>
+        <v>6.363700576783458</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224579</v>
+        <v>57.83398394224588</v>
       </c>
       <c r="T16" t="n">
-        <v>80.6889413296188</v>
+        <v>80.68894132961887</v>
       </c>
       <c r="U16" t="n">
-        <v>135.3082370038742</v>
+        <v>135.3082370038743</v>
       </c>
       <c r="V16" t="n">
-        <v>109.1326976931448</v>
+        <v>109.1326976931449</v>
       </c>
       <c r="W16" t="n">
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956117</v>
+        <v>79.94468575956125</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562894</v>
       </c>
     </row>
     <row r="17">
@@ -1923,22 +1923,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>8.319531842405635</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>67.04900563271322</v>
       </c>
       <c r="U18" t="n">
         <v>216.28848525876</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010342</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>53.57822247353094</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>40.10868695258633</v>
@@ -2062,13 +2062,13 @@
         <v>13.93314764185695</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>87.4074995962379</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C20" t="n">
-        <v>133.919617325216</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D20" t="n">
-        <v>124.900921369744</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E20" t="n">
-        <v>146.6430589396495</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8148750276267</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G20" t="n">
-        <v>167.141355064475</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625352</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995305</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V20" t="n">
-        <v>89.4146776077134</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W20" t="n">
-        <v>114.7147770856703</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X20" t="n">
-        <v>134.0150353184169</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2172,10 +2172,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>95.35801274107233</v>
       </c>
       <c r="H21" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393509</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>105.7393313322805</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258633</v>
+        <v>40.10868695258642</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1510344323048</v>
+        <v>13.93314764185703</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247021</v>
+        <v>44.87756800757862</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C23" t="n">
-        <v>133.919617325216</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D23" t="n">
-        <v>124.900921369744</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E23" t="n">
-        <v>146.6430589396495</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8148750276267</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G23" t="n">
-        <v>167.141355064475</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625352</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995305</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V23" t="n">
-        <v>89.4146776077134</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W23" t="n">
-        <v>114.7147770856703</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X23" t="n">
-        <v>134.0150353184169</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -2412,10 +2412,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>71.26162531004856</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>176.9703198854571</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>98.38531323624059</v>
+        <v>135.970784928008</v>
       </c>
       <c r="V25" t="n">
-        <v>13.93314764185695</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247029</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>118.3398427244305</v>
       </c>
       <c r="U26" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V26" t="n">
         <v>232.4901811408133</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C28" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E28" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G28" t="n">
         <v>65.83906677878824</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C29" t="n">
-        <v>276.9951208583159</v>
+        <v>276.9951208583158</v>
       </c>
       <c r="D29" t="n">
-        <v>267.9764249028439</v>
+        <v>267.9764249028438</v>
       </c>
       <c r="E29" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727493</v>
       </c>
       <c r="F29" t="n">
-        <v>308.8903785607266</v>
+        <v>308.8903785607265</v>
       </c>
       <c r="G29" t="n">
-        <v>310.2168585975749</v>
+        <v>310.2168585975748</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1594952593534</v>
+        <v>222.1594952593533</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629992</v>
+        <v>46.57653758629984</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090989</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V29" t="n">
-        <v>232.4901811408133</v>
+        <v>232.4901811408132</v>
       </c>
       <c r="W29" t="n">
-        <v>257.7902806187702</v>
+        <v>257.7902806187701</v>
       </c>
       <c r="X29" t="n">
-        <v>277.0905388515168</v>
+        <v>277.0905388515167</v>
       </c>
       <c r="Y29" t="n">
         <v>288.4871366477155</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533123</v>
+        <v>80.60051477533115</v>
       </c>
       <c r="C31" t="n">
-        <v>66.80050962073172</v>
+        <v>66.80050962073163</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831011</v>
+        <v>50.42187401831002</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408956</v>
+        <v>49.36962387408947</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227586</v>
+        <v>49.83654820227578</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878826</v>
+        <v>65.83906677878818</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859531</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554671</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723266</v>
       </c>
       <c r="S31" t="n">
-        <v>105.7099374240578</v>
+        <v>105.7099374240577</v>
       </c>
       <c r="T31" t="n">
-        <v>128.5648948114308</v>
+        <v>128.5648948114307</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1841904856862</v>
+        <v>183.1841904856861</v>
       </c>
       <c r="V31" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W31" t="n">
-        <v>182.1755372455701</v>
+        <v>182.17553724557</v>
       </c>
       <c r="X31" t="n">
-        <v>127.8206392413732</v>
+        <v>127.8206392413731</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.6955069974409</v>
+        <v>118.6955069974408</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090994</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V32" t="n">
         <v>232.4901811408133</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C34" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723272</v>
+        <v>34.6688744372327</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797256</v>
       </c>
       <c r="C35" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374073</v>
       </c>
       <c r="D35" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819353</v>
       </c>
       <c r="E35" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518408</v>
       </c>
       <c r="F35" t="n">
-        <v>238.4801715398166</v>
+        <v>238.480171539818</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766663</v>
       </c>
       <c r="H35" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384448</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.374900193695794e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352195</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118657</v>
       </c>
       <c r="V35" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199047</v>
       </c>
       <c r="W35" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978616</v>
       </c>
       <c r="X35" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306082</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.0769296268056</v>
+        <v>218.076929626807</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.1165548494722</v>
+        <v>50.78790158934694</v>
       </c>
       <c r="H36" t="n">
         <v>95.80294554235505</v>
@@ -3402,7 +3402,7 @@
         <v>216.28848525876</v>
       </c>
       <c r="V36" t="n">
-        <v>149.783013066005</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442263</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21.39252697166263</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>58.80637228903613</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010342</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314922</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052222</v>
       </c>
       <c r="U37" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647776</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404822</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246615</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046321</v>
+        <v>57.4104322204646</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.5735968797242</v>
+        <v>218.5735968797256</v>
       </c>
       <c r="C38" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374073</v>
       </c>
       <c r="D38" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819353</v>
       </c>
       <c r="E38" t="n">
-        <v>219.3083554518394</v>
+        <v>219.3083554518408</v>
       </c>
       <c r="F38" t="n">
-        <v>238.4801715398166</v>
+        <v>238.480171539818</v>
       </c>
       <c r="G38" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766663</v>
       </c>
       <c r="H38" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384448</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.374900193695794e-12</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352195</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118658</v>
       </c>
       <c r="V38" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199047</v>
       </c>
       <c r="W38" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978616</v>
       </c>
       <c r="X38" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306082</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268056</v>
+        <v>218.076929626807</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>61.12159737954551</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -3597,7 +3597,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>95.80294554235505</v>
+        <v>19.47429228222983</v>
       </c>
       <c r="I39" t="n">
         <v>56.52047122575468</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442263</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.67640247354198</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314922</v>
       </c>
       <c r="T40" t="n">
-        <v>229.6841950336356</v>
+        <v>58.15468779052222</v>
       </c>
       <c r="U40" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647776</v>
       </c>
       <c r="V40" t="n">
-        <v>144.5945208856345</v>
+        <v>86.59844415404822</v>
       </c>
       <c r="W40" t="n">
-        <v>111.7653302246601</v>
+        <v>111.7653302246615</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046321</v>
+        <v>57.4104322204646</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653229</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352057</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V41" t="n">
         <v>162.0799741199033</v>
@@ -3834,10 +3834,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H42" t="n">
-        <v>95.80294554235505</v>
+        <v>75.99476350796641</v>
       </c>
       <c r="I42" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>162.5740568188787</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>62.56721697370904</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W43" t="n">
-        <v>189.7497399588477</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C44" t="n">
         <v>206.5849138374059</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352058</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4043,7 +4043,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393509</v>
+        <v>19.22083731954686</v>
       </c>
       <c r="S45" t="n">
         <v>145.2410726443114</v>
@@ -4113,7 +4113,7 @@
         <v>216.28848525876</v>
       </c>
       <c r="V45" t="n">
-        <v>149.783013066005</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.2997304031478</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T46" t="n">
-        <v>58.1546877905208</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U46" t="n">
-        <v>170.7700601963641</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V46" t="n">
-        <v>86.5984441540468</v>
+        <v>104.3812737255308</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>815.4399922067782</v>
+        <v>713.9754606392123</v>
       </c>
       <c r="C11" t="n">
-        <v>584.0064898062692</v>
+        <v>713.9754606392123</v>
       </c>
       <c r="D11" t="n">
-        <v>584.0064898062692</v>
+        <v>713.9754606392123</v>
       </c>
       <c r="E11" t="n">
-        <v>558.6368286667719</v>
+        <v>469.6899970120028</v>
       </c>
       <c r="F11" t="n">
-        <v>294.9858942436259</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="G11" t="n">
-        <v>29.99508099538054</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L11" t="n">
-        <v>401.1842083132146</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="M11" t="n">
-        <v>401.1842083132146</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="N11" t="n">
-        <v>654.720488048762</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="O11" t="n">
-        <v>1025.909615366596</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P11" t="n">
-        <v>1340.450796129692</v>
+        <v>1458.10364371198</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507312</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T11" t="n">
-        <v>1476.992177507312</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="U11" t="n">
-        <v>1476.992177507312</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="V11" t="n">
-        <v>1290.513159669937</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="W11" t="n">
-        <v>1290.513159669937</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="X11" t="n">
-        <v>1058.983275458114</v>
+        <v>1200.560343048026</v>
       </c>
       <c r="Y11" t="n">
-        <v>1058.983275458114</v>
+        <v>957.5187438905477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>640.7181816137532</v>
+        <v>195.060534627247</v>
       </c>
       <c r="C12" t="n">
-        <v>629.5147651213916</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="D12" t="n">
-        <v>490.6761281116037</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="E12" t="n">
-        <v>343.6481181684749</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="F12" t="n">
-        <v>312.2576785888976</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G12" t="n">
-        <v>183.8571181348853</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H12" t="n">
-        <v>87.08646607190042</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J12" t="n">
-        <v>29.99508099538054</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>311.3868694948438</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L12" t="n">
-        <v>311.3868694948438</v>
+        <v>558.5760106698538</v>
       </c>
       <c r="M12" t="n">
-        <v>566.2933322920176</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="N12" t="n">
-        <v>566.2933322920176</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098517</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896365</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S12" t="n">
-        <v>1313.622643710192</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T12" t="n">
-        <v>1276.759622552353</v>
+        <v>1165.682618158332</v>
       </c>
       <c r="U12" t="n">
-        <v>1208.786661385946</v>
+        <v>947.209400725241</v>
       </c>
       <c r="V12" t="n">
-        <v>1130.891295100963</v>
+        <v>835.7339043811407</v>
       </c>
       <c r="W12" t="n">
-        <v>889.5754263342734</v>
+        <v>594.4180356144508</v>
       </c>
       <c r="X12" t="n">
-        <v>691.6584382120679</v>
+        <v>396.5010474922454</v>
       </c>
       <c r="Y12" t="n">
-        <v>649.6373681283304</v>
+        <v>203.9797211418242</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.9234999696826</v>
+        <v>79.74412711853076</v>
       </c>
       <c r="C13" t="n">
-        <v>772.8077866980465</v>
+        <v>60.62841384689471</v>
       </c>
       <c r="D13" t="n">
-        <v>770.2361497924928</v>
+        <v>58.0567769413411</v>
       </c>
       <c r="E13" t="n">
-        <v>768.7273918204953</v>
+        <v>56.5480189693436</v>
       </c>
       <c r="F13" t="n">
-        <v>766.7469931129561</v>
+        <v>54.56762026180438</v>
       </c>
       <c r="G13" t="n">
-        <v>748.6024342271215</v>
+        <v>36.42306137596981</v>
       </c>
       <c r="H13" t="n">
-        <v>742.1744538465325</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I13" t="n">
-        <v>742.1744538465325</v>
+        <v>29.9950809953805</v>
       </c>
       <c r="J13" t="n">
-        <v>742.1744538465325</v>
+        <v>29.9950809953805</v>
       </c>
       <c r="K13" t="n">
-        <v>807.0852619301481</v>
+        <v>94.90588907899618</v>
       </c>
       <c r="L13" t="n">
-        <v>947.7540368721566</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M13" t="n">
-        <v>1107.986983884336</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N13" t="n">
-        <v>1267.64440702407</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O13" t="n">
-        <v>1404.195325274873</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P13" t="n">
-        <v>1499.754049769027</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q13" t="n">
-        <v>1499.754049769027</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="R13" t="n">
-        <v>1499.754049769027</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S13" t="n">
-        <v>1441.335884170799</v>
+        <v>729.1565113196471</v>
       </c>
       <c r="T13" t="n">
-        <v>1359.83190302977</v>
+        <v>647.6525301786179</v>
       </c>
       <c r="U13" t="n">
-        <v>1223.156916157169</v>
+        <v>510.9775433060177</v>
       </c>
       <c r="V13" t="n">
-        <v>1112.921867982276</v>
+        <v>400.742495131124</v>
       </c>
       <c r="W13" t="n">
-        <v>977.2657227663585</v>
+        <v>265.0863499152067</v>
       </c>
       <c r="X13" t="n">
-        <v>896.513514928418</v>
+        <v>184.3341420772662</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.9786123873787</v>
+        <v>112.7992395362269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.4715831016472</v>
+        <v>849.6708740432596</v>
       </c>
       <c r="C14" t="n">
-        <v>780.9605371728645</v>
+        <v>849.6708740432596</v>
       </c>
       <c r="D14" t="n">
-        <v>558.6368286667719</v>
+        <v>849.6708740432596</v>
       </c>
       <c r="E14" t="n">
-        <v>558.6368286667719</v>
+        <v>605.38541041605</v>
       </c>
       <c r="F14" t="n">
-        <v>294.9858942436259</v>
+        <v>341.734475992904</v>
       </c>
       <c r="G14" t="n">
-        <v>29.99508099538054</v>
+        <v>76.74366274465847</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J14" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K14" t="n">
-        <v>152.9789828377824</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="L14" t="n">
-        <v>524.1681101556165</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M14" t="n">
-        <v>598.0725414940241</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N14" t="n">
-        <v>969.2616688118583</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O14" t="n">
-        <v>1340.450796129692</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P14" t="n">
-        <v>1340.450796129692</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507312</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.816531807697</v>
+        <v>1428.578404069413</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.480485150845</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="V14" t="n">
-        <v>1115.00146731347</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="W14" t="n">
-        <v>1115.00146731347</v>
+        <v>1324.242357412561</v>
       </c>
       <c r="X14" t="n">
-        <v>883.4715831016472</v>
+        <v>1092.712473200738</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.4715831016472</v>
+        <v>849.6708740432596</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.060534627247</v>
+        <v>342.0885445703759</v>
       </c>
       <c r="C15" t="n">
-        <v>183.8571181348853</v>
+        <v>330.8851280780141</v>
       </c>
       <c r="D15" t="n">
-        <v>183.8571181348853</v>
+        <v>330.8851280780141</v>
       </c>
       <c r="E15" t="n">
-        <v>183.8571181348853</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="F15" t="n">
-        <v>183.8571181348853</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="G15" t="n">
-        <v>183.8571181348853</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190042</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K15" t="n">
-        <v>195.1042049741835</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L15" t="n">
-        <v>566.2933322920176</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M15" t="n">
-        <v>566.2933322920176</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="N15" t="n">
-        <v>566.2933322920176</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098517</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305522</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
-        <v>1460.330797896365</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S15" t="n">
-        <v>1460.330797896365</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T15" t="n">
-        <v>1272.967520471842</v>
+        <v>1165.682618158332</v>
       </c>
       <c r="U15" t="n">
-        <v>1204.994559305435</v>
+        <v>947.209400725241</v>
       </c>
       <c r="V15" t="n">
-        <v>976.5989367537691</v>
+        <v>718.813778173575</v>
       </c>
       <c r="W15" t="n">
-        <v>735.2830679870791</v>
+        <v>627.9981656735686</v>
       </c>
       <c r="X15" t="n">
-        <v>537.3660798648737</v>
+        <v>543.5290574353743</v>
       </c>
       <c r="Y15" t="n">
-        <v>354.4799774085079</v>
+        <v>351.0077310849532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853074</v>
+        <v>79.74412711853108</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689469</v>
+        <v>60.62841384689494</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134108</v>
+        <v>58.05677694134124</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934359</v>
+        <v>56.54801896934364</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180436</v>
+        <v>54.56762026180434</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596979</v>
+        <v>36.42306137596991</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L16" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M16" t="n">
         <v>395.8076110331838</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O16" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="S16" t="n">
         <v>729.1565113196471</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786179</v>
+        <v>647.6525301786181</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060177</v>
+        <v>510.9775433060184</v>
       </c>
       <c r="V16" t="n">
-        <v>400.742495131124</v>
+        <v>400.7424951311247</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152067</v>
+        <v>265.0863499152073</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772662</v>
+        <v>184.3341420772667</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362269</v>
+        <v>112.7992395362273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862541</v>
+        <v>855.756514786255</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537126</v>
+        <v>720.4841740537136</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155883</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563463</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011669</v>
+        <v>278.7075525011678</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J17" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K17" t="n">
-        <v>469.5331892888867</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="L17" t="n">
-        <v>598.0725414940241</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="M17" t="n">
-        <v>969.2616688118583</v>
+        <v>283.5313607309284</v>
       </c>
       <c r="N17" t="n">
-        <v>969.2616688118583</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="O17" t="n">
-        <v>1340.450796129692</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P17" t="n">
-        <v>1340.450796129692</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780144</v>
+        <v>1491.579164780145</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859133</v>
+        <v>1150.019073859134</v>
       </c>
       <c r="Y17" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>545.2916690232137</v>
+        <v>477.5654007073425</v>
       </c>
       <c r="C18" t="n">
-        <v>545.2916690232137</v>
+        <v>315.8617279482972</v>
       </c>
       <c r="D18" t="n">
-        <v>536.8881015056322</v>
+        <v>177.0230909385093</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8600915625034</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F18" t="n">
-        <v>255.1662935123777</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G18" t="n">
-        <v>126.7657330583654</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H18" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J18" t="n">
-        <v>29.99508099538054</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
-        <v>311.3868694948438</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L18" t="n">
-        <v>311.3868694948438</v>
+        <v>491.8048845301061</v>
       </c>
       <c r="M18" t="n">
-        <v>682.5759968126779</v>
+        <v>862.9940118479403</v>
       </c>
       <c r="N18" t="n">
-        <v>765.0931167555227</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="O18" t="n">
-        <v>1136.282244073357</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P18" t="n">
-        <v>1499.754049769027</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1460.330797896365</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S18" t="n">
-        <v>1313.622643710192</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T18" t="n">
-        <v>1313.622643710192</v>
+        <v>1245.896375394321</v>
       </c>
       <c r="U18" t="n">
-        <v>1095.149426277101</v>
+        <v>1027.42315796123</v>
       </c>
       <c r="V18" t="n">
-        <v>1095.149426277101</v>
+        <v>1027.42315796123</v>
       </c>
       <c r="W18" t="n">
-        <v>1095.149426277101</v>
+        <v>1027.42315796123</v>
       </c>
       <c r="X18" t="n">
-        <v>897.2324381548957</v>
+        <v>829.5061698390247</v>
       </c>
       <c r="Y18" t="n">
-        <v>704.7111118044745</v>
+        <v>636.9848434886035</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.7111470837851</v>
+        <v>199.6110505337003</v>
       </c>
       <c r="C19" t="n">
-        <v>223.0951775454654</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="D19" t="n">
-        <v>223.0951775454654</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="E19" t="n">
-        <v>223.0951775454654</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F19" t="n">
-        <v>70.61452257124257</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G19" t="n">
-        <v>70.61452257124257</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H19" t="n">
-        <v>70.61452257124257</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I19" t="n">
-        <v>70.61452257124257</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210047</v>
@@ -5683,40 +5683,40 @@
         <v>395.8076110331838</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O19" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P19" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q19" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="R19" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="S19" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="T19" t="n">
-        <v>733.4552602779448</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="U19" t="n">
-        <v>692.9414350733122</v>
+        <v>747.0608517132425</v>
       </c>
       <c r="V19" t="n">
-        <v>678.8675485663859</v>
+        <v>732.9869652063163</v>
       </c>
       <c r="W19" t="n">
-        <v>392.7111470837851</v>
+        <v>693.4919816583666</v>
       </c>
       <c r="X19" t="n">
-        <v>392.7111470837851</v>
+        <v>605.2015780258031</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.7111470837851</v>
+        <v>383.1664192180801</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862538</v>
+        <v>855.7565147862543</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F20" t="n">
         <v>278.7075525011669</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J20" t="n">
-        <v>152.9789828377824</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K20" t="n">
-        <v>469.5331892888867</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L20" t="n">
-        <v>469.5331892888867</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="M20" t="n">
-        <v>469.5331892888867</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="N20" t="n">
-        <v>654.720488048762</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="O20" t="n">
-        <v>1025.909615366596</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.450796129692</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.579164780143</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
         <v>1150.019073859133</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>547.3261780614077</v>
+        <v>708.5804237484504</v>
       </c>
       <c r="C21" t="n">
-        <v>547.3261780614077</v>
+        <v>546.8767509894051</v>
       </c>
       <c r="D21" t="n">
-        <v>408.4875410516199</v>
+        <v>408.0381139796172</v>
       </c>
       <c r="E21" t="n">
-        <v>261.4595311084911</v>
+        <v>261.0101040364884</v>
       </c>
       <c r="F21" t="n">
-        <v>126.7657330583654</v>
+        <v>126.3163059863627</v>
       </c>
       <c r="G21" t="n">
-        <v>126.7657330583654</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H21" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J21" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K21" t="n">
-        <v>311.3868694948438</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L21" t="n">
-        <v>311.3868694948438</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M21" t="n">
-        <v>311.3868694948438</v>
+        <v>757.3757951333589</v>
       </c>
       <c r="N21" t="n">
-        <v>682.5759968126779</v>
+        <v>1128.564922451193</v>
       </c>
       <c r="O21" t="n">
-        <v>937.4824596098517</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P21" t="n">
-        <v>1300.954265305522</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896365</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896365</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T21" t="n">
-        <v>1272.967520471842</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U21" t="n">
-        <v>1272.967520471842</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="V21" t="n">
-        <v>1044.571897920176</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="W21" t="n">
-        <v>937.7644925340344</v>
+        <v>1258.438181002338</v>
       </c>
       <c r="X21" t="n">
-        <v>739.8475044118289</v>
+        <v>1060.521192880133</v>
       </c>
       <c r="Y21" t="n">
-        <v>547.3261780614077</v>
+        <v>867.9998665297113</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.99508099538054</v>
+        <v>504.1007197466043</v>
       </c>
       <c r="C22" t="n">
-        <v>29.99508099538054</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="D22" t="n">
-        <v>29.99508099538054</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="E22" t="n">
-        <v>29.99508099538054</v>
+        <v>182.4757359696034</v>
       </c>
       <c r="F22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899621</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210047</v>
@@ -5920,40 +5920,40 @@
         <v>395.8076110331838</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O22" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P22" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q22" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="R22" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="S22" t="n">
-        <v>578.6562550529634</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="T22" t="n">
-        <v>578.6562550529634</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="U22" t="n">
-        <v>538.1424298483307</v>
+        <v>747.0608517132424</v>
       </c>
       <c r="V22" t="n">
-        <v>291.5252233510532</v>
+        <v>732.9869652063161</v>
       </c>
       <c r="W22" t="n">
-        <v>252.0302398031035</v>
+        <v>687.6560884309841</v>
       </c>
       <c r="X22" t="n">
-        <v>252.0302398031035</v>
+        <v>687.6560884309841</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.99508099538054</v>
+        <v>687.6560884309841</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862539</v>
+        <v>855.7565147862543</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537126</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011671</v>
+        <v>278.7075525011667</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H23" t="n">
         <v>29.99508099538055</v>
@@ -5987,25 +5987,25 @@
         <v>29.99508099538055</v>
       </c>
       <c r="J23" t="n">
-        <v>152.9789828377825</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K23" t="n">
-        <v>469.5331892888868</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L23" t="n">
-        <v>654.7204880487627</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="M23" t="n">
-        <v>654.7204880487627</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="N23" t="n">
-        <v>654.7204880487627</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366597</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="P23" t="n">
-        <v>1340.450796129693</v>
+        <v>1458.10364371198</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769028</v>
@@ -6026,7 +6026,7 @@
         <v>1401.261308610736</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X23" t="n">
         <v>1150.019073859133</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.6551493980686</v>
+        <v>740.6597592114805</v>
       </c>
       <c r="C24" t="n">
-        <v>446.9514766390233</v>
+        <v>578.9560864524352</v>
       </c>
       <c r="D24" t="n">
-        <v>446.9514766390233</v>
+        <v>440.1174494426473</v>
       </c>
       <c r="E24" t="n">
-        <v>446.9514766390233</v>
+        <v>293.0894394995185</v>
       </c>
       <c r="F24" t="n">
-        <v>312.2576785888976</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G24" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I24" t="n">
         <v>29.99508099538055</v>
       </c>
       <c r="J24" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K24" t="n">
-        <v>402.007545711735</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295694</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M24" t="n">
-        <v>773.1966730295694</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="N24" t="n">
-        <v>773.1966730295694</v>
+        <v>1143.562462948884</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098526</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P24" t="n">
-        <v>1300.954265305523</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q24" t="n">
         <v>1499.754049769028</v>
@@ -6096,22 +6096,22 @@
         <v>1499.754049769028</v>
       </c>
       <c r="T24" t="n">
-        <v>1312.390772344505</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U24" t="n">
-        <v>1240.409332637385</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.409332637385</v>
+        <v>1271.358427217362</v>
       </c>
       <c r="W24" t="n">
-        <v>999.0934638706952</v>
+        <v>1271.358427217362</v>
       </c>
       <c r="X24" t="n">
-        <v>801.1764757484898</v>
+        <v>1092.600528343163</v>
       </c>
       <c r="Y24" t="n">
-        <v>608.6551493980686</v>
+        <v>900.0792019927414</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9301258415943</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9301258415943</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="D25" t="n">
-        <v>165.9301258415943</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="E25" t="n">
-        <v>165.9301258415943</v>
+        <v>182.4757359696034</v>
       </c>
       <c r="F25" t="n">
-        <v>165.9301258415943</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9301258415943</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H25" t="n">
-        <v>165.9301258415943</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I25" t="n">
         <v>29.99508099538055</v>
@@ -6166,31 +6166,31 @@
         <v>787.5746769178752</v>
       </c>
       <c r="Q25" t="n">
-        <v>787.5746769178752</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="R25" t="n">
-        <v>787.5746769178752</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="S25" t="n">
-        <v>787.5746769178752</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="T25" t="n">
-        <v>787.5746769178752</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="U25" t="n">
-        <v>688.1955726388443</v>
+        <v>634.7150381978117</v>
       </c>
       <c r="V25" t="n">
-        <v>674.1216861319181</v>
+        <v>373.9797337562344</v>
       </c>
       <c r="W25" t="n">
-        <v>387.9652846493173</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="X25" t="n">
-        <v>387.9652846493173</v>
+        <v>334.4847502082846</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9301258415943</v>
+        <v>334.4847502082846</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>1530.37865636802</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916632</v>
+        <v>967.0503862916628</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969899</v>
+        <v>655.0399028969895</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772173</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2860101122129</v>
+        <v>117.2860101122128</v>
       </c>
       <c r="I26" t="n">
         <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>193.2229042916856</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K26" t="n">
-        <v>609.8852179627726</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L26" t="n">
-        <v>1152.676816822191</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1751.505262829082</v>
+        <v>1851.613370049065</v>
       </c>
       <c r="N26" t="n">
-        <v>2337.132696919369</v>
+        <v>2437.240804139352</v>
       </c>
       <c r="O26" t="n">
-        <v>2843.459947474076</v>
+        <v>2843.459947474075</v>
       </c>
       <c r="P26" t="n">
         <v>3258.109235457155</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279588</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
         <v>3511.950122464183</v>
@@ -6257,16 +6257,16 @@
         <v>3321.293506559799</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.59791093142</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122518</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W26" t="n">
         <v>2673.365121275275</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.475688091925</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
         <v>2102.074539962919</v>
@@ -6303,25 +6303,25 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
-        <v>117.2170367589562</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K27" t="n">
-        <v>117.2170367589562</v>
+        <v>442.2514671656381</v>
       </c>
       <c r="L27" t="n">
-        <v>552.8264986597611</v>
+        <v>877.8609290664431</v>
       </c>
       <c r="M27" t="n">
-        <v>1119.298709225475</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.158656621462</v>
+        <v>1515.358872157957</v>
       </c>
       <c r="O27" t="n">
-        <v>2182.83106159791</v>
+        <v>1984.031277134405</v>
       </c>
       <c r="P27" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.30286729358</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.939679952655</v>
+        <v>443.9396799526551</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094916</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324107</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888859</v>
+        <v>275.6649248888861</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098194</v>
+        <v>225.3249772098196</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524575</v>
+        <v>158.8208693524577</v>
       </c>
       <c r="H28" t="n">
         <v>104.033340000341</v>
@@ -6382,22 +6382,22 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L28" t="n">
-        <v>536.331792446353</v>
+        <v>536.3317924463537</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785148</v>
+        <v>796.6728466785155</v>
       </c>
       <c r="N28" t="n">
         <v>1056.438377038233</v>
       </c>
       <c r="O28" t="n">
-        <v>1293.097402509018</v>
+        <v>1293.097402509019</v>
       </c>
       <c r="P28" t="n">
         <v>1488.764234223155</v>
@@ -6412,22 +6412,22 @@
         <v>1431.868906954462</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
         <v>1116.970840997778</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513573</v>
+        <v>958.3762438513575</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639127</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740054</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.378656368018</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.695398890397</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916606</v>
+        <v>967.050386291663</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969873</v>
+        <v>655.0399028969898</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772151</v>
+        <v>341.6895406772173</v>
       </c>
       <c r="H29" t="n">
-        <v>117.2860101122129</v>
+        <v>117.2860101122128</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J29" t="n">
         <v>293.3310115116684</v>
@@ -6470,43 +6470,43 @@
         <v>1252.784924042173</v>
       </c>
       <c r="M29" t="n">
-        <v>1797.034397012181</v>
+        <v>1851.613370049065</v>
       </c>
       <c r="N29" t="n">
-        <v>2382.661831102468</v>
+        <v>2431.670330287062</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.880974437191</v>
+        <v>2937.997580841768</v>
       </c>
       <c r="P29" t="n">
-        <v>3203.53026242027</v>
+        <v>3352.646868824847</v>
       </c>
       <c r="Q29" t="n">
-        <v>3462.941623279587</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464183</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559797</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962917</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6525,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E30" t="n">
-        <v>487.1953980929264</v>
+        <v>487.1953980929263</v>
       </c>
       <c r="F30" t="n">
-        <v>352.5016000428008</v>
+        <v>352.5016000428007</v>
       </c>
       <c r="G30" t="n">
         <v>224.1010395887884</v>
@@ -6537,7 +6537,7 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J30" t="n">
         <v>160.8596786661748</v>
@@ -6549,7 +6549,7 @@
         <v>877.8609290664431</v>
       </c>
       <c r="M30" t="n">
-        <v>920.4989247619702</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N30" t="n">
         <v>1515.358872157957</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526551</v>
+        <v>443.9396799526544</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094917</v>
+        <v>376.4644177094912</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324108</v>
+        <v>325.5332318324103</v>
       </c>
       <c r="E31" t="n">
-        <v>275.664924888886</v>
+        <v>275.6649248888856</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098195</v>
+        <v>225.3249772098192</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524576</v>
+        <v>158.8208693524574</v>
       </c>
       <c r="H31" t="n">
-        <v>104.033340000341</v>
+        <v>104.0333400003409</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="J31" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843626</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463537</v>
+        <v>536.3317924463539</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785155</v>
+        <v>796.6728466785157</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O31" t="n">
-        <v>1293.097402509019</v>
+        <v>1293.097402509017</v>
       </c>
       <c r="P31" t="n">
-        <v>1488.764234223155</v>
+        <v>1488.764234223154</v>
       </c>
       <c r="Q31" t="n">
-        <v>1573.665686612332</v>
+        <v>1573.66568661233</v>
       </c>
       <c r="R31" t="n">
-        <v>1538.646621524218</v>
+        <v>1538.646621524216</v>
       </c>
       <c r="S31" t="n">
-        <v>1431.868906954463</v>
+        <v>1431.868906954461</v>
       </c>
       <c r="T31" t="n">
-        <v>1302.005376841906</v>
+        <v>1302.005376841905</v>
       </c>
       <c r="U31" t="n">
-        <v>1116.970840997779</v>
+        <v>1116.970840997777</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513576</v>
+        <v>958.3762438513565</v>
       </c>
       <c r="W31" t="n">
-        <v>774.360549663913</v>
+        <v>774.360549663912</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544451</v>
+        <v>645.2487928544442</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418786</v>
+        <v>525.3543413418778</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916623</v>
+        <v>967.0503862916621</v>
       </c>
       <c r="F32" t="n">
-        <v>655.039902896989</v>
+        <v>655.0399028969888</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772164</v>
+        <v>341.6895406772162</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122128</v>
@@ -6701,40 +6701,40 @@
         <v>293.3310115116683</v>
       </c>
       <c r="K32" t="n">
-        <v>655.4143521458702</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.205951005288</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M32" t="n">
-        <v>1797.03439701218</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.661831102467</v>
+        <v>2337.132696919369</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.88097443719</v>
+        <v>2843.459947474075</v>
       </c>
       <c r="P32" t="n">
-        <v>3203.530262420269</v>
+        <v>3258.109235457155</v>
       </c>
       <c r="Q32" t="n">
         <v>3462.941623279586</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464181</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559797</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.597910931419</v>
+        <v>3168.597910931418</v>
       </c>
       <c r="V32" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122516</v>
       </c>
       <c r="W32" t="n">
         <v>2673.365121275274</v>
@@ -6777,25 +6777,25 @@
         <v>70.23900244928363</v>
       </c>
       <c r="J33" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928363</v>
       </c>
       <c r="K33" t="n">
-        <v>442.2514671656381</v>
+        <v>117.2170367589562</v>
       </c>
       <c r="L33" t="n">
-        <v>442.2514671656381</v>
+        <v>552.8264986597611</v>
       </c>
       <c r="M33" t="n">
-        <v>1008.723677731352</v>
+        <v>1119.298709225475</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O33" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P33" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q33" t="n">
         <v>2546.30286729358</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526555</v>
+        <v>443.9396799526552</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094921</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324112</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888864</v>
+        <v>275.6649248888862</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098199</v>
+        <v>225.3249772098197</v>
       </c>
       <c r="G34" t="n">
-        <v>158.820869352458</v>
+        <v>158.8208693524578</v>
       </c>
       <c r="H34" t="n">
-        <v>104.0333400003415</v>
+        <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
         <v>70.23900244928363</v>
@@ -6859,16 +6859,16 @@
         <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843626</v>
+        <v>295.5549102843628</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463538</v>
+        <v>536.331792446354</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785156</v>
+        <v>796.6728466785158</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O34" t="n">
         <v>1293.097402509019</v>
@@ -6883,7 +6883,7 @@
         <v>1538.646621524218</v>
       </c>
       <c r="S34" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954463</v>
       </c>
       <c r="T34" t="n">
         <v>1302.005376841906</v>
@@ -6892,16 +6892,16 @@
         <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513581</v>
+        <v>958.3762438513579</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639136</v>
+        <v>774.3605496639134</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544455</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418789</v>
+        <v>525.3543413418786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597512</v>
       </c>
       <c r="C35" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458716</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143372</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488414</v>
       </c>
       <c r="F35" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874091</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008766</v>
       </c>
       <c r="H35" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="I35" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J35" t="n">
-        <v>171.9423552115157</v>
+        <v>171.9423552115161</v>
       </c>
       <c r="K35" t="n">
-        <v>488.49656166262</v>
+        <v>171.9423552115161</v>
       </c>
       <c r="L35" t="n">
-        <v>583.6194250613215</v>
+        <v>614.6258468509513</v>
       </c>
       <c r="M35" t="n">
-        <v>1082.33976384823</v>
+        <v>1113.34618563786</v>
       </c>
       <c r="N35" t="n">
-        <v>1567.859090718535</v>
+        <v>1598.865512508164</v>
       </c>
       <c r="O35" t="n">
-        <v>1974.078234053258</v>
+        <v>2005.084655842888</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.619414816354</v>
+        <v>2288.619414816375</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845571</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017808</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.93472062267</v>
       </c>
       <c r="V35" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575047009</v>
       </c>
       <c r="W35" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773433007</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482898</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587133</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189670167</v>
       </c>
       <c r="C36" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079714</v>
       </c>
       <c r="D36" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981834</v>
       </c>
       <c r="E36" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550547</v>
       </c>
       <c r="F36" t="n">
-        <v>331.2210509626308</v>
+        <v>254.121401204929</v>
       </c>
       <c r="G36" t="n">
-        <v>202.8204905086185</v>
+        <v>202.820490508619</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0498384456337</v>
+        <v>106.0498384456341</v>
       </c>
       <c r="I36" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J36" t="n">
-        <v>139.579129586005</v>
+        <v>139.5791295860054</v>
       </c>
       <c r="K36" t="n">
-        <v>139.579129586005</v>
+        <v>420.9709180854686</v>
       </c>
       <c r="L36" t="n">
-        <v>454.4462998218698</v>
+        <v>856.5803799862736</v>
       </c>
       <c r="M36" t="n">
-        <v>1020.918510387584</v>
+        <v>1423.052590551988</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.77845778357</v>
+        <v>1423.052590551988</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.450862760019</v>
+        <v>1885.651078296534</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.922668455689</v>
+        <v>2249.122883992204</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583047</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.791262396854</v>
+        <v>2261.791262396874</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972331</v>
+        <v>2074.427984972351</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.95476753924</v>
+        <v>1855.95476753926</v>
       </c>
       <c r="V36" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987594</v>
       </c>
       <c r="W36" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220904</v>
       </c>
       <c r="X36" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098699</v>
       </c>
       <c r="Y36" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482776</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>280.8024775859851</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="C37" t="n">
-        <v>111.1865080476653</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="D37" t="n">
-        <v>111.1865080476653</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="E37" t="n">
-        <v>111.1865080476653</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="F37" t="n">
-        <v>89.57789494497581</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="G37" t="n">
-        <v>89.57789494497581</v>
+        <v>205.8866900163871</v>
       </c>
       <c r="H37" t="n">
-        <v>89.57789494497581</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="I37" t="n">
-        <v>89.57789494497581</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J37" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527299</v>
       </c>
       <c r="L37" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947384</v>
       </c>
       <c r="M37" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069175</v>
       </c>
       <c r="N37" t="n">
-        <v>574.428406546652</v>
+        <v>574.4284065466525</v>
       </c>
       <c r="O37" t="n">
-        <v>710.9793247974544</v>
+        <v>710.9793247974549</v>
       </c>
       <c r="P37" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916088</v>
       </c>
       <c r="Q37" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="R37" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="S37" t="n">
-        <v>770.8817559550954</v>
+        <v>755.366344435039</v>
       </c>
       <c r="T37" t="n">
-        <v>712.1396470757815</v>
+        <v>696.6242355557235</v>
       </c>
       <c r="U37" t="n">
-        <v>598.2265324648964</v>
+        <v>582.711120944837</v>
       </c>
       <c r="V37" t="n">
-        <v>510.7533565517178</v>
+        <v>495.237945031657</v>
       </c>
       <c r="W37" t="n">
-        <v>397.8590835975157</v>
+        <v>382.3436720774534</v>
       </c>
       <c r="X37" t="n">
-        <v>339.8687480212902</v>
+        <v>324.3533365012266</v>
       </c>
       <c r="Y37" t="n">
-        <v>291.0957177419661</v>
+        <v>275.580306221901</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.11562359751</v>
       </c>
       <c r="C38" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458715</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143356</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488398</v>
       </c>
       <c r="F38" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874075</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008766</v>
       </c>
       <c r="H38" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="I38" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J38" t="n">
-        <v>171.9423552115157</v>
+        <v>140.9359334219063</v>
       </c>
       <c r="K38" t="n">
-        <v>488.49656166262</v>
+        <v>140.9359334219063</v>
       </c>
       <c r="L38" t="n">
-        <v>931.1800533020553</v>
+        <v>583.6194250613415</v>
       </c>
       <c r="M38" t="n">
-        <v>1429.900392088964</v>
+        <v>1082.33976384825</v>
       </c>
       <c r="N38" t="n">
-        <v>1567.859090718535</v>
+        <v>1567.859090718555</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.078234053258</v>
+        <v>1974.078234053278</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.619414816354</v>
+        <v>2288.619414816375</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455707</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.508895017806</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622668</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575047007</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773433006</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587132</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.3855189669966</v>
+        <v>836.3855189670167</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079514</v>
+        <v>674.6818462079714</v>
       </c>
       <c r="D39" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981834</v>
       </c>
       <c r="E39" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550547</v>
       </c>
       <c r="F39" t="n">
-        <v>331.2210509626308</v>
+        <v>254.121401204929</v>
       </c>
       <c r="G39" t="n">
-        <v>202.8204905086185</v>
+        <v>125.7208407509167</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0498384456337</v>
+        <v>106.0498384456341</v>
       </c>
       <c r="I39" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J39" t="n">
-        <v>139.579129586005</v>
+        <v>139.5791295860054</v>
       </c>
       <c r="K39" t="n">
-        <v>420.9709180854682</v>
+        <v>420.9709180854686</v>
       </c>
       <c r="L39" t="n">
-        <v>724.3189203348135</v>
+        <v>724.3189203348335</v>
       </c>
       <c r="M39" t="n">
-        <v>1290.791130900528</v>
+        <v>1290.791130900548</v>
       </c>
       <c r="N39" t="n">
-        <v>1885.651078296514</v>
+        <v>1885.651078296534</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296514</v>
+        <v>1885.651078296534</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992184</v>
+        <v>2249.122883992204</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.922668455709</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583047</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396854</v>
+        <v>2261.791262396874</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972331</v>
+        <v>2074.427984972351</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.95476753924</v>
+        <v>1855.95476753926</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987574</v>
+        <v>1627.559144987594</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220884</v>
+        <v>1386.243276220904</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.326288098679</v>
+        <v>1188.326288098699</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.8049617482576</v>
+        <v>995.8049617482776</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.95845336911378</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="C40" t="n">
-        <v>48.95845336911378</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="D40" t="n">
-        <v>48.95845336911378</v>
+        <v>265.2870660659186</v>
       </c>
       <c r="E40" t="n">
-        <v>48.95845336911378</v>
+        <v>113.2780518272374</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95845336911378</v>
+        <v>113.2780518272374</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="J40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.95845336911418</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527299</v>
       </c>
       <c r="L40" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947384</v>
       </c>
       <c r="M40" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069175</v>
       </c>
       <c r="N40" t="n">
-        <v>574.428406546652</v>
+        <v>574.4284065466525</v>
       </c>
       <c r="O40" t="n">
-        <v>710.9793247974544</v>
+        <v>710.9793247974549</v>
       </c>
       <c r="P40" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916088</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715534</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550954</v>
+        <v>755.366344435039</v>
       </c>
       <c r="T40" t="n">
-        <v>538.8775185473827</v>
+        <v>696.6242355557235</v>
       </c>
       <c r="U40" t="n">
-        <v>424.9644039364976</v>
+        <v>582.711120944837</v>
       </c>
       <c r="V40" t="n">
-        <v>278.9093323348466</v>
+        <v>495.237945031657</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0150593806444</v>
+        <v>382.3436720774534</v>
       </c>
       <c r="X40" t="n">
-        <v>108.024723804419</v>
+        <v>324.3533365012266</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.25169352509483</v>
+        <v>275.580306221901</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143306</v>
       </c>
       <c r="E41" t="n">
-        <v>685.3585658488358</v>
+        <v>685.3585658488364</v>
       </c>
       <c r="F41" t="n">
-        <v>444.469503687405</v>
+        <v>444.4695036874054</v>
       </c>
       <c r="G41" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H41" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I41" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J41" t="n">
         <v>171.9423552115157</v>
@@ -7415,46 +7415,46 @@
         <v>488.49656166262</v>
       </c>
       <c r="L41" t="n">
-        <v>742.9226787006559</v>
+        <v>931.1800533020553</v>
       </c>
       <c r="M41" t="n">
-        <v>1241.643017487565</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N41" t="n">
-        <v>1727.162344357869</v>
+        <v>1915.419718959268</v>
       </c>
       <c r="O41" t="n">
-        <v>2133.381487692593</v>
+        <v>2288.619414816356</v>
       </c>
       <c r="P41" t="n">
-        <v>2447.922668455689</v>
+        <v>2288.619414816356</v>
       </c>
       <c r="Q41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S41" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U41" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W41" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X41" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y41" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>913.4851687247184</v>
+        <v>836.385518966998</v>
       </c>
       <c r="C42" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079527</v>
       </c>
       <c r="D42" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981648</v>
       </c>
       <c r="E42" t="n">
-        <v>465.9148490127565</v>
+        <v>388.815199255036</v>
       </c>
       <c r="F42" t="n">
-        <v>331.2210509626308</v>
+        <v>254.1214012049104</v>
       </c>
       <c r="G42" t="n">
-        <v>202.8204905086185</v>
+        <v>125.7208407508981</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0498384456337</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I42" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J42" t="n">
-        <v>48.95845336911378</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K42" t="n">
-        <v>48.95845336911378</v>
+        <v>420.9709180854683</v>
       </c>
       <c r="L42" t="n">
-        <v>484.5679152699187</v>
+        <v>856.5803799862732</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.918510387584</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.77845778357</v>
+        <v>2017.912537947974</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.450862760019</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q42" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R42" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583029</v>
       </c>
       <c r="S42" t="n">
-        <v>2261.791262396854</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T42" t="n">
-        <v>2074.427984972331</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U42" t="n">
-        <v>1855.95476753924</v>
+        <v>1855.954767539242</v>
       </c>
       <c r="V42" t="n">
-        <v>1627.559144987574</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W42" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X42" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.32628809868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1072.904611505979</v>
+        <v>995.804961748259</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.0303465413511</v>
+        <v>280.8024775859846</v>
       </c>
       <c r="C43" t="n">
-        <v>202.0303465413511</v>
+        <v>217.603268521632</v>
       </c>
       <c r="D43" t="n">
-        <v>48.95845336911378</v>
+        <v>217.603268521632</v>
       </c>
       <c r="E43" t="n">
-        <v>48.95845336911378</v>
+        <v>217.603268521632</v>
       </c>
       <c r="F43" t="n">
-        <v>48.95845336911378</v>
+        <v>217.603268521632</v>
       </c>
       <c r="G43" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="H43" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I43" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J43" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K43" t="n">
         <v>113.8692614527295</v>
@@ -7576,7 +7576,7 @@
         <v>254.538036394738</v>
       </c>
       <c r="M43" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N43" t="n">
         <v>574.428406546652</v>
@@ -7594,25 +7594,25 @@
         <v>806.5380492916083</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550954</v>
+        <v>770.8817559550953</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757815</v>
+        <v>712.1396470757813</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648964</v>
+        <v>598.2265324648962</v>
       </c>
       <c r="V43" t="n">
-        <v>510.7533565517178</v>
+        <v>510.7533565517176</v>
       </c>
       <c r="W43" t="n">
-        <v>319.0869525528817</v>
+        <v>397.8590835975154</v>
       </c>
       <c r="X43" t="n">
-        <v>261.0966169766563</v>
+        <v>339.8687480212899</v>
       </c>
       <c r="Y43" t="n">
-        <v>212.3235866973321</v>
+        <v>291.0957177419657</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>1315.115623597502</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143313</v>
       </c>
       <c r="E44" t="n">
-        <v>685.358565848836</v>
+        <v>685.3585658488369</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874052</v>
+        <v>444.469503687406</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H44" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I44" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J44" t="n">
         <v>171.9423552115157</v>
@@ -7661,37 +7661,37 @@
         <v>1915.419718959268</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.078234053258</v>
+        <v>2321.638862293992</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816354</v>
+        <v>2321.638862293992</v>
       </c>
       <c r="Q44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S44" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247184</v>
+        <v>856.3937836481986</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656731</v>
+        <v>694.6901108891533</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558852</v>
+        <v>555.8514738793654</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127565</v>
+        <v>408.8234639362366</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626308</v>
+        <v>274.129665886111</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086185</v>
+        <v>145.7291054320987</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0498384456337</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I45" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J45" t="n">
-        <v>133.5052123540828</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K45" t="n">
-        <v>414.897000853546</v>
+        <v>330.350241868577</v>
       </c>
       <c r="L45" t="n">
-        <v>850.506462754351</v>
+        <v>765.959703769382</v>
       </c>
       <c r="M45" t="n">
-        <v>1416.978673320065</v>
+        <v>1332.431914335096</v>
       </c>
       <c r="N45" t="n">
-        <v>1416.978673320065</v>
+        <v>1927.291861731082</v>
       </c>
       <c r="O45" t="n">
-        <v>1885.651078296514</v>
+        <v>2084.45086276002</v>
       </c>
       <c r="P45" t="n">
-        <v>2249.122883992184</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q45" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R45" t="n">
-        <v>2408.499416583027</v>
+        <v>2428.507681264229</v>
       </c>
       <c r="S45" t="n">
-        <v>2261.791262396854</v>
+        <v>2281.799527078056</v>
       </c>
       <c r="T45" t="n">
-        <v>2074.427984972331</v>
+        <v>2094.436249653533</v>
       </c>
       <c r="U45" t="n">
-        <v>1855.95476753924</v>
+        <v>1875.963032220442</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1647.567409668776</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1406.251540902086</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.4259378564</v>
+        <v>1208.334552779881</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.904611505979</v>
+        <v>1015.81322642946</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="C46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="D46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="E46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="F46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="G46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95845336911378</v>
+        <v>89.57789494497584</v>
       </c>
       <c r="J46" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K46" t="n">
         <v>113.8692614527295</v>
@@ -7813,7 +7813,7 @@
         <v>254.538036394738</v>
       </c>
       <c r="M46" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N46" t="n">
         <v>574.428406546652</v>
@@ -7831,25 +7831,25 @@
         <v>806.5380492916083</v>
       </c>
       <c r="S46" t="n">
-        <v>770.8817559550954</v>
+        <v>770.8817559550953</v>
       </c>
       <c r="T46" t="n">
-        <v>712.1396470757815</v>
+        <v>712.1396470757813</v>
       </c>
       <c r="U46" t="n">
-        <v>539.6446367764238</v>
+        <v>424.9644039364975</v>
       </c>
       <c r="V46" t="n">
-        <v>452.1714608632452</v>
+        <v>319.5287739107088</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0150593806443</v>
+        <v>206.6345009565066</v>
       </c>
       <c r="X46" t="n">
-        <v>108.0247238044189</v>
+        <v>148.6441653802811</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.2516935250948</v>
+        <v>99.87113510095692</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>101.63731265453</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978067</v>
+        <v>95.80453685554997</v>
       </c>
       <c r="M11" t="n">
-        <v>80.60967557410785</v>
+        <v>455.5481880163647</v>
       </c>
       <c r="N11" t="n">
-        <v>334.2246914984511</v>
+        <v>453.0659516825793</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790543</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>157.1682276737482</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>42.08289141893638</v>
+        <v>200.2328560230967</v>
       </c>
       <c r="M12" t="n">
-        <v>290.7037063411208</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291330001</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5530578288245</v>
+        <v>38.6145453865679</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>46.858361155484</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8927,22 +8927,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>101.63731265453</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>470.7430492978067</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M14" t="n">
-        <v>155.2606163199741</v>
+        <v>267.6675531093362</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825791</v>
+        <v>78.1274392403224</v>
       </c>
       <c r="O14" t="n">
-        <v>459.6563810790543</v>
+        <v>84.71786863679755</v>
       </c>
       <c r="P14" t="n">
-        <v>100.6199562157594</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K15" t="n">
-        <v>134.811534644078</v>
+        <v>59.57067831891459</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611931</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M15" t="n">
-        <v>33.22243078841998</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291330001</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5530578288245</v>
+        <v>398.404027023077</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>46.858361155484</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215417</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,22 +9164,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L17" t="n">
-        <v>225.6422663556887</v>
+        <v>95.80453685554997</v>
       </c>
       <c r="M17" t="n">
-        <v>455.5481880163645</v>
+        <v>212.4807643550633</v>
       </c>
       <c r="N17" t="n">
-        <v>78.1274392403224</v>
+        <v>453.0659516825793</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790543</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P17" t="n">
-        <v>100.6199562157594</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891459</v>
       </c>
       <c r="L18" t="n">
-        <v>42.08289141893638</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M18" t="n">
-        <v>408.1609432306767</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N18" t="n">
-        <v>105.6270791181938</v>
+        <v>97.51730923846395</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5530578288245</v>
+        <v>38.6145453865679</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.29261096215417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652227</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L20" t="n">
         <v>95.80453685554997</v>
       </c>
       <c r="M20" t="n">
-        <v>80.60967557410785</v>
+        <v>455.5481880163647</v>
       </c>
       <c r="N20" t="n">
-        <v>265.18531677555</v>
+        <v>334.2246914984515</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790543</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9480,25 +9480,25 @@
         <v>72.38230935981312</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891459</v>
       </c>
       <c r="L21" t="n">
-        <v>42.08289141893638</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M21" t="n">
-        <v>33.22243078841998</v>
+        <v>393.0119124249292</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2149653555567</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O21" t="n">
-        <v>296.0958209392688</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>46.858361155484</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215417</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652227</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L23" t="n">
-        <v>282.8624143907782</v>
+        <v>95.80453685554997</v>
       </c>
       <c r="M23" t="n">
-        <v>80.60967557410785</v>
+        <v>455.5481880163647</v>
       </c>
       <c r="N23" t="n">
-        <v>78.1274392403224</v>
+        <v>453.0659516825793</v>
       </c>
       <c r="O23" t="n">
         <v>459.6563810790545</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>157.1682276737482</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891459</v>
       </c>
       <c r="L24" t="n">
         <v>417.0214038611933</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078841998</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291330001</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O24" t="n">
-        <v>204.5597843565509</v>
+        <v>398.404027023077</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>46.858361155484</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215417</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8348692685732</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>59.57067831891459</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>94.01961708077393</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.29261096215417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>76.29111330915447</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>94.01961708077393</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,19 +10425,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>107.0232382276747</v>
       </c>
       <c r="L33" t="n">
-        <v>42.08289141893638</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>534.0291745563347</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215417</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,10 +10586,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L35" t="n">
-        <v>191.8882372582788</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>387.0187026536246</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10665,25 +10665,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891459</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>360.1305381218302</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>22.27645291330001</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>505.8857451285338</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.29261096215417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>188.5059817543931</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>217.4796600782724</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10905,7 +10905,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>348.4950149031235</v>
+        <v>348.4950149031433</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11063,7 +11063,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>352.8006146717479</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11072,13 +11072,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415689</v>
+        <v>461.6872583914313</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q41" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,25 +11136,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.57067831891459</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>574.9907086850516</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>472.9682125660794</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>46.858361155484</v>
       </c>
       <c r="Q42" t="n">
         <v>72.29261096215417</v>
@@ -11309,13 +11309,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>143.968893984262</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>242.6565106077384</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>157.783076011297</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291330001</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>197.3610110723637</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215417</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
         <v>220.1004714210318</v>
       </c>
       <c r="E11" t="n">
-        <v>216.7266444628349</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H11" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.53425353909794</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261851</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.6142276590012</v>
       </c>
       <c r="W11" t="n">
         <v>209.9143271369581</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>106.7693911488133</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
-        <v>127.633231907009</v>
+        <v>229.119167376504</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775414</v>
+        <v>128.0024458457563</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.53425353909802</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369581</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>911706.8283538022</v>
+        <v>911706.8283538026</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>911706.8283538022</v>
+        <v>911706.8283538023</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1079186.037684212</v>
+        <v>1079186.037684213</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1079186.037684212</v>
+        <v>1079186.037684213</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>459525.9789043824</v>
+      </c>
+      <c r="C2" t="n">
         <v>459525.9789043825</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>459525.9789043827</v>
-      </c>
-      <c r="D2" t="n">
-        <v>459525.9789043824</v>
       </c>
       <c r="E2" t="n">
         <v>401572.0788718603</v>
       </c>
       <c r="F2" t="n">
-        <v>401572.0788718601</v>
+        <v>401572.0788718602</v>
       </c>
       <c r="G2" t="n">
-        <v>460574.4362965089</v>
+        <v>460574.4362965092</v>
       </c>
       <c r="H2" t="n">
         <v>460574.4362965091</v>
@@ -26335,22 +26335,22 @@
         <v>460574.4362965091</v>
       </c>
       <c r="J2" t="n">
+        <v>460574.4362965092</v>
+      </c>
+      <c r="K2" t="n">
+        <v>460574.4362965086</v>
+      </c>
+      <c r="L2" t="n">
+        <v>460574.4362965091</v>
+      </c>
+      <c r="M2" t="n">
+        <v>460574.4362965091</v>
+      </c>
+      <c r="N2" t="n">
         <v>460574.4362965089</v>
       </c>
-      <c r="K2" t="n">
-        <v>460574.4362965085</v>
-      </c>
-      <c r="L2" t="n">
-        <v>460574.4362965092</v>
-      </c>
-      <c r="M2" t="n">
-        <v>460574.4362965085</v>
-      </c>
-      <c r="N2" t="n">
-        <v>460574.4362965084</v>
-      </c>
       <c r="O2" t="n">
-        <v>460574.4362965086</v>
+        <v>460574.4362965087</v>
       </c>
       <c r="P2" t="n">
         <v>460574.4362965084</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339869</v>
+        <v>352409.022033987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103027</v>
+        <v>76159.64004103035</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.64004103029</v>
+        <v>76159.6400410303</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920505</v>
+        <v>83474.3682592051</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733565</v>
+        <v>4735.800136733603</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>419756.4024566745</v>
       </c>
       <c r="E4" t="n">
-        <v>303300.2911377927</v>
+        <v>303300.2911377928</v>
       </c>
       <c r="F4" t="n">
-        <v>303300.2911377927</v>
+        <v>303300.2911377926</v>
       </c>
       <c r="G4" t="n">
-        <v>359427.9628026184</v>
+        <v>359427.9628026185</v>
       </c>
       <c r="H4" t="n">
         <v>359427.9628026184</v>
       </c>
       <c r="I4" t="n">
-        <v>359427.9628026185</v>
+        <v>359427.9628026184</v>
       </c>
       <c r="J4" t="n">
         <v>348294.7670570374</v>
@@ -26445,16 +26445,16 @@
         <v>348294.7670570374</v>
       </c>
       <c r="L4" t="n">
-        <v>348294.7670570373</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458562</v>
       </c>
       <c r="N4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458562</v>
       </c>
       <c r="O4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="P4" t="n">
         <v>349934.2306458564</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106099</v>
+        <v>38612.602411061</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106099</v>
+        <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
         <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.09918276491</v>
+        <v>65173.0991827649</v>
       </c>
       <c r="K5" t="n">
         <v>65173.0991827649</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.09918276488</v>
+        <v>65173.09918276489</v>
       </c>
       <c r="M5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.19757587687</v>
       </c>
       <c r="N5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.19757587687</v>
       </c>
       <c r="O5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.1975758767</v>
       </c>
       <c r="P5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.1975758767</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6141.97644770801</v>
+        <v>6137.607875240757</v>
       </c>
       <c r="C6" t="n">
-        <v>6141.976447708184</v>
+        <v>6137.607875240816</v>
       </c>
       <c r="D6" t="n">
-        <v>6141.976447707952</v>
+        <v>6137.60787524099</v>
       </c>
       <c r="E6" t="n">
-        <v>-292749.8367109803</v>
+        <v>-292995.6798669165</v>
       </c>
       <c r="F6" t="n">
-        <v>59659.18532300642</v>
+        <v>59413.34216707061</v>
       </c>
       <c r="G6" t="n">
-        <v>-21629.09993146246</v>
+        <v>-21629.09993146242</v>
       </c>
       <c r="H6" t="n">
-        <v>54530.54010956796</v>
+        <v>54530.54010956806</v>
       </c>
       <c r="I6" t="n">
-        <v>54530.54010956788</v>
+        <v>54530.54010956794</v>
       </c>
       <c r="J6" t="n">
-        <v>-89248.98739108976</v>
+        <v>-89248.98739108958</v>
       </c>
       <c r="K6" t="n">
-        <v>47106.57005670618</v>
+        <v>47106.57005670624</v>
       </c>
       <c r="L6" t="n">
-        <v>-29053.06998432335</v>
+        <v>-29053.06998432353</v>
       </c>
       <c r="M6" t="n">
-        <v>-27753.36018442969</v>
+        <v>-27753.36018442913</v>
       </c>
       <c r="N6" t="n">
-        <v>55721.00807477538</v>
+        <v>55721.00807477583</v>
       </c>
       <c r="O6" t="n">
-        <v>50985.20793804199</v>
+        <v>50985.20793804191</v>
       </c>
       <c r="P6" t="n">
-        <v>55721.00807477532</v>
+        <v>55721.0080747753</v>
       </c>
     </row>
   </sheetData>
@@ -26695,31 +26695,31 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G2" t="n">
         <v>244.1948037553047</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="K2" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="L2" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="O2" t="n">
         <v>171.5295072431148</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="I4" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160458</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160457</v>
+        <v>877.9875306160454</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160453</v>
+        <v>877.9875306160454</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139272</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139272</v>
       </c>
       <c r="O4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139226</v>
       </c>
       <c r="P4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139226</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128784</v>
+        <v>95.19955005128793</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170916956</v>
+        <v>5.919750170917041</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128786</v>
+        <v>95.19955005128787</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090849</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916956</v>
+        <v>5.919750170918405</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737889</v>
+        <v>503.0490181737887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401336</v>
+        <v>108.9316489401387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-3.528997637858521e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128784</v>
+        <v>95.19955005128793</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916956</v>
+        <v>5.919750170917041</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28172,16 +28172,16 @@
         <v>148.9952537040168</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>102.2703248858429</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393509</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>148.9952537040168</v>
+        <v>115.7509249454901</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I14" t="n">
         <v>147.6958378085047</v>
@@ -28375,25 +28375,25 @@
         <v>51.61576569231047</v>
       </c>
       <c r="S14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C15" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.02901935393509</v>
       </c>
       <c r="S15" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>112.313401085171</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.538871655114832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I16" t="n">
         <v>134.5756943977516</v>
@@ -28533,25 +28533,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.9952537040168</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="17">
@@ -28643,22 +28643,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>129.1307187972844</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I18" t="n">
         <v>56.52047122575468</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4896446502776</v>
+        <v>118.4406390175644</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.958367000993</v>
@@ -28743,7 +28743,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
-        <v>176.1059725601046</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
         <v>244.1948037553047</v>
@@ -28782,13 +28782,13 @@
         <v>244.1948037553047</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>141.5324398673401</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>31.75854210839984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
         <v>56.52047122575468</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393509</v>
       </c>
       <c r="S21" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>133.1633787467426</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,19 +28956,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.958367000993</v>
@@ -29007,25 +29007,25 @@
         <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V22" t="n">
-        <v>13.97691696485685</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553047</v>
+        <v>238.4172694601963</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29092,19 +29092,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="24">
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,19 +29168,19 @@
         <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
-        <v>145.0268599487115</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>18.96749835552626</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29202,10 +29202,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.958367000993</v>
@@ -29214,7 +29214,7 @@
         <v>155.3589542808002</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
         <v>40.21324716010342</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485481</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>135.7881746594375</v>
@@ -29250,19 +29250,19 @@
         <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>185.9181774716504</v>
+        <v>148.332705779883</v>
       </c>
       <c r="V25" t="n">
-        <v>244.1948037553047</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K26" t="n">
         <v>101.1193002222048</v>
@@ -29311,13 +29311,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.98902442737258</v>
+        <v>45.98902442737167</v>
       </c>
       <c r="R26" t="n">
         <v>101.1193002222048</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="C29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="D29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="E29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="F29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="G29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="H29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="I29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="J29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="K29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="L29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="M29" t="n">
-        <v>45.98902442737233</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="N29" t="n">
-        <v>101.1193002222048</v>
+        <v>95.49255895726543</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="P29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>101.1193002222048</v>
+        <v>51.61576569231047</v>
       </c>
       <c r="S29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="T29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="U29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="V29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="W29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="X29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="C31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="E31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="G31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="H31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="I31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="J31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="K31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="L31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="M31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="N31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="O31" t="n">
+        <v>101.1193002222031</v>
+      </c>
+      <c r="P31" t="n">
         <v>101.1193002222049</v>
       </c>
-      <c r="P31" t="n">
-        <v>101.1193002222048</v>
-      </c>
       <c r="Q31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="R31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="S31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="T31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="U31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="V31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="W31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="X31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222049</v>
       </c>
     </row>
     <row r="32">
@@ -29773,25 +29773,25 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K32" t="n">
-        <v>45.98902442737136</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="M32" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737077</v>
       </c>
       <c r="R32" t="n">
         <v>101.1193002222048</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="C35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="D35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="E35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="F35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="G35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="H35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="I35" t="n">
         <v>147.6958378085047</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.61576569231047</v>
+        <v>51.61576569231185</v>
       </c>
       <c r="S35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="T35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="U35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="V35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="W35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
     </row>
     <row r="36">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>76.32865326012524</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>76.32865326014439</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,19 +30153,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>129.563321452818</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.958367000993</v>
+        <v>108.1519947119569</v>
       </c>
       <c r="H37" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.5756943977516</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.36025740485481</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="T37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="U37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="W37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="X37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="C38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="D38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="E38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="F38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="H38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="I38" t="n">
         <v>147.6958378085047</v>
@@ -30271,25 +30271,25 @@
         <v>51.61576569231047</v>
       </c>
       <c r="S38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="T38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="U38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="V38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="W38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="Y38" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>76.32865326014453</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.32865326012522</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30387,13 +30387,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.958367000993</v>
+        <v>103.2819645274511</v>
       </c>
       <c r="H40" t="n">
         <v>155.3589542808002</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.36025740485481</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="U40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="V40" t="n">
-        <v>113.5334305115271</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="W40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="X40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5295072431148</v>
+        <v>171.5295072431134</v>
       </c>
     </row>
     <row r="41">
@@ -30554,10 +30554,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>19.80818203438864</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>76.32865326014431</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30618,10 +30618,10 @@
         <v>171.5295072431148</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>105.3525928692275</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>155.3589542808002</v>
@@ -30678,7 +30678,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="W43" t="n">
-        <v>93.54509750892717</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="X43" t="n">
         <v>171.5295072431148</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.80818203438823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>76.32865326014439</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010342</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30909,13 +30909,13 @@
         <v>171.5295072431148</v>
       </c>
       <c r="U46" t="n">
-        <v>113.5334305115269</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>153.7466776716308</v>
+      </c>
+      <c r="W46" t="n">
         <v>171.5295072431148</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>171.5295072431148</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422567</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N11" t="n">
-        <v>256.0972522581287</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P11" t="n">
         <v>317.718364407168</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.9123774134691</v>
+        <v>42.07111722934122</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K12" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.1499646041603</v>
       </c>
       <c r="M12" t="n">
-        <v>257.4812755527008</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O12" t="n">
-        <v>374.9385124422567</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>200.8078630944497</v>
@@ -35647,22 +35647,22 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M14" t="n">
-        <v>74.65094074586622</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422567</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>374.9385124422567</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q14" t="n">
         <v>160.9123774134691</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.24085632516338</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O15" t="n">
-        <v>374.9385124422567</v>
+        <v>359.7894816365092</v>
       </c>
       <c r="P15" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K17" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>129.8377295001388</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>374.9385124422567</v>
+        <v>131.8710887809555</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O17" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q17" t="n">
         <v>160.9123774134691</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M18" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N18" t="n">
-        <v>83.35062620489377</v>
+        <v>75.24085632516395</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9385124422567</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0578775352276</v>
+        <v>256.0972522581291</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P20" t="n">
         <v>317.718364407168</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>359.7894816365092</v>
       </c>
       <c r="N21" t="n">
-        <v>374.9385124422567</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O21" t="n">
-        <v>257.4812755527009</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P21" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>187.0578775352282</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O23" t="n">
         <v>374.9385124422569</v>
@@ -36376,7 +36376,7 @@
         <v>317.718364407168</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.9123774134691</v>
+        <v>42.07111722934122</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O24" t="n">
-        <v>165.9452389699831</v>
+        <v>359.7894816365092</v>
       </c>
       <c r="P24" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.2261634771736</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K26" t="n">
         <v>420.8710239101889</v>
@@ -36607,16 +36607,16 @@
         <v>591.5428627174617</v>
       </c>
       <c r="O26" t="n">
-        <v>511.4416672269762</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P26" t="n">
         <v>418.8376646293729</v>
       </c>
       <c r="Q26" t="n">
-        <v>206.9014018408417</v>
+        <v>206.9014018408407</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989433</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>47.45255990876011</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L27" t="n">
         <v>440.0095574755605</v>
@@ -36683,7 +36683,7 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N27" t="n">
-        <v>600.8686337333195</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O27" t="n">
         <v>473.4064696731805</v>
@@ -36692,7 +36692,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K28" t="n">
         <v>166.6857730339378</v>
@@ -36759,7 +36759,7 @@
         <v>243.2089718807993</v>
       </c>
       <c r="M28" t="n">
-        <v>262.9707618506685</v>
+        <v>262.9707618506686</v>
       </c>
       <c r="N28" t="n">
         <v>262.3894246057755</v>
@@ -36771,7 +36771,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281734999</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>225.3454636993785</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8710239101889</v>
+        <v>420.871023910189</v>
       </c>
       <c r="L29" t="n">
-        <v>548.2743422822404</v>
+        <v>548.2743422822405</v>
       </c>
       <c r="M29" t="n">
-        <v>549.7469423939467</v>
+        <v>604.8772181887792</v>
       </c>
       <c r="N29" t="n">
-        <v>591.5428627174617</v>
+        <v>585.9161214525224</v>
       </c>
       <c r="O29" t="n">
-        <v>410.3223670047714</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P29" t="n">
         <v>418.8376646293729</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356739</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989432</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M30" t="n">
-        <v>43.06868252073448</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N30" t="n">
-        <v>600.8686337333195</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O30" t="n">
         <v>473.4064696731805</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210136</v>
+        <v>60.90605306210145</v>
       </c>
       <c r="K31" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339379</v>
       </c>
       <c r="L31" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807994</v>
       </c>
       <c r="M31" t="n">
-        <v>262.9707618506685</v>
+        <v>262.9707618506686</v>
       </c>
       <c r="N31" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057756</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775609</v>
+        <v>239.0495206775591</v>
       </c>
       <c r="P31" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281735006</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>225.3454636993785</v>
       </c>
       <c r="K32" t="n">
-        <v>365.7407481153555</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L32" t="n">
         <v>548.2743422822404</v>
       </c>
       <c r="M32" t="n">
-        <v>604.8772181887792</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N32" t="n">
         <v>591.5428627174617</v>
       </c>
       <c r="O32" t="n">
-        <v>410.3223670047714</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P32" t="n">
         <v>418.8376646293729</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.0316776356739</v>
+        <v>206.9014018408398</v>
       </c>
       <c r="R32" t="n">
-        <v>49.50353452989433</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>284.2341297974376</v>
+        <v>47.45255990876014</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M33" t="n">
         <v>572.1941520865799</v>
       </c>
       <c r="N33" t="n">
-        <v>511.7527216430347</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731805</v>
@@ -37166,7 +37166,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K34" t="n">
         <v>166.6857730339378</v>
@@ -37233,7 +37233,7 @@
         <v>243.2089718807993</v>
       </c>
       <c r="M34" t="n">
-        <v>262.9707618506685</v>
+        <v>262.9707618506686</v>
       </c>
       <c r="N34" t="n">
         <v>262.3894246057755</v>
@@ -37245,7 +37245,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734999</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>124.2261634771736</v>
       </c>
       <c r="K35" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>96.08370040272884</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M35" t="n">
         <v>503.7579179665744</v>
@@ -37321,13 +37321,13 @@
         <v>410.3223670047714</v>
       </c>
       <c r="P35" t="n">
-        <v>317.718364407168</v>
+        <v>286.3987464378652</v>
       </c>
       <c r="Q35" t="n">
         <v>160.9123774134691</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.378022275413528e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>91.53603658271837</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0476467028938</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M36" t="n">
         <v>572.1941520865799</v>
       </c>
       <c r="N36" t="n">
-        <v>600.8686337333195</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>473.4064696731805</v>
+        <v>467.2711997419659</v>
       </c>
       <c r="P36" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.2261634771736</v>
+        <v>92.9065455078708</v>
       </c>
       <c r="K38" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>447.1550420600356</v>
@@ -37552,7 +37552,7 @@
         <v>503.7579179665744</v>
       </c>
       <c r="N38" t="n">
-        <v>139.3522208379501</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O38" t="n">
         <v>410.3223670047714</v>
@@ -37625,7 +37625,7 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L39" t="n">
-        <v>306.4121234841871</v>
+        <v>306.4121234842069</v>
       </c>
       <c r="M39" t="n">
         <v>572.1941520865799</v>
@@ -37783,7 +37783,7 @@
         <v>319.7517236879841</v>
       </c>
       <c r="L41" t="n">
-        <v>256.9960778161979</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M41" t="n">
         <v>503.7579179665744</v>
@@ -37792,13 +37792,13 @@
         <v>490.4235624952569</v>
       </c>
       <c r="O41" t="n">
-        <v>410.3223670047714</v>
+        <v>376.9693897546337</v>
       </c>
       <c r="P41" t="n">
-        <v>317.718364407168</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
         <v>440.0095574755605</v>
       </c>
       <c r="M42" t="n">
-        <v>541.7682778966316</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N42" t="n">
         <v>600.8686337333195</v>
       </c>
       <c r="O42" t="n">
-        <v>473.4064696731805</v>
+        <v>434.3536671795115</v>
       </c>
       <c r="P42" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>490.4235624952569</v>
       </c>
       <c r="O44" t="n">
-        <v>59.25102534746441</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P44" t="n">
-        <v>317.718364407168</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.9123774134691</v>
+        <v>127.5594001633314</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.40076665148386</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>284.2341297974376</v>
@@ -38105,16 +38105,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731805</v>
+        <v>158.7464656857958</v>
       </c>
       <c r="P45" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
